--- a/data/美团点评评分和近7天评论.xlsx
+++ b/data/美团点评评分和近7天评论.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +488,18 @@
           <t>网鱼电竞酒店（上海光大国际会展中心店）</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -518,17 +522,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（普陀长寿路店）</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
+          <t>网鱼电竞酒店（上海宝山殷高西路店）</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -546,14 +554,18 @@
           <t>网鱼电竞酒店（广州赤岗地铁站店）</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.2</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -568,17 +580,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（深圳布吉东站店）</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.4</v>
+          <t>网鱼电竞酒店（普陀长寿路店）</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -596,29 +612,25 @@
           <t>网鱼电竞酒店（上海松江万达店）</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.9</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>整体来说，确实是有一个正常酒店的样子，不过提前说好的游戏确实没有，APEX两台电脑都打不开，不能加被子，厕所和主客的连通性也确实太开放了。配</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>44778.79732638889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,14 +638,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海嘉定南翔店）</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.7</v>
+          <t>网鱼电竞酒店（广州岗贝路店）</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -651,17 +667,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（武汉汉口火车站店）</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.3</v>
+          <t>网鱼电竞酒店（广州东晓南地铁站店）</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -676,24 +696,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（广州岗贝路店）</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.7</v>
+          <t>网鱼电竞酒店（苏州观前街店）</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
       </c>
       <c r="E9" t="n">
+        <v>36</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>房间隔音有些不尽人意，过道声音很明显可以听到，其他的挺好</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" s="2" t="n">
+        <v>44783.66758101852</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -701,17 +733,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海奉贤南桥店）</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4.5</v>
+          <t>网鱼电竞酒店（上海嘉定南翔店）</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -726,17 +762,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（广州东圃客运站店）</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.9</v>
+          <t>网鱼电竞酒店（武汉虎泉地铁站店）</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -751,17 +791,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（壹城中心店）</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4.2</v>
+          <t>网鱼电竞酒店（上海宁国路地铁站店）</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -776,17 +820,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（广州祈福新邨店）</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4.7</v>
+          <t>网鱼电竞酒店（武汉汉口火车站店）</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -801,32 +849,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（苏州观前街店）</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.1</v>
+          <t>网鱼电竞酒店（上海青浦新城店）</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>房间隔音有些不尽人意，过道声音很明显可以听到，其他的挺好</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>44783.66758101852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -834,17 +878,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海宝山殷高西路店）</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
+          <t>周浦小上海步行街店</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -859,17 +907,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海闵行虹梅路地铁站店）</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.6</v>
+          <t>网鱼电竞酒店（壹城中心店）</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -884,24 +936,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（武汉虎泉地铁站店）</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4.7</v>
+          <t>网鱼电竞酒店（广州祈福新邨店）</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>空调一晚上都跳闸  一晚上起来开了好多次</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>44786.48045138889</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -909,24 +973,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海青浦新城店）</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.3</v>
+          <t>网鱼电竞酒店（广州祈福新邨店）</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>办事效率太慢了，也不知道在墨迹什么。</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>44785.65700231482</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -934,17 +1010,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>周浦小上海步行街店</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+          <t>网鱼电竞酒店（上海奉贤南桥店）</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -959,17 +1039,21 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（广州东晓南地铁站店）</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.9</v>
+          <t>网鱼电竞酒店（深圳布吉东站店）</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -984,24 +1068,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海周浦小上海步行街店）</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4.5</v>
+          <t>网鱼电竞酒店（上海闵行虹梅路地铁站店）</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>一般吧，四点去跟我说房间还没好，让我等一分钟但是我却等了10分钟，不会说话就不要说，无语。设施也奇葩，沿着号找不到，原来房间在角落里，开关灯按钮在床尾，房间很小10平左右吧，没窗户人在里面有点压抑吧。</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>44784.59791666667</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1009,17 +1105,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（杭州钱江世纪城店）</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.7</v>
+          <t>网鱼电竞酒店（广州东圃客运站店）</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1034,17 +1134,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海虹桥吴中路店）</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.9</v>
+          <t>网鱼电竞酒店（上海周浦小上海步行街店）</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1059,17 +1163,21 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（江汉路步行街店）</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4.5</v>
+          <t>网鱼电竞酒店（杭州钱江世纪城店）</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1084,24 +1192,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海虹桥火车站店）</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3.8</v>
+          <t>网鱼电竞酒店（上海虹桥吴中路店）</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>吹风机电线是断缺的 差点被电打死 另外客服态度不咋地  房间里烟味</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>44784.70569444444</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1109,17 +1229,21 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（广州上下九华林寺地铁站店）</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.9</v>
+          <t>网鱼电竞酒店（江汉路步行街店）</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1134,24 +1258,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海虹桥国际机场店）</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+          <t>网鱼电竞酒店（上海虹桥火车站店）</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>5</v>
       </c>
-      <c r="D27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="E27" t="n">
-        <v>6</v>
-      </c>
       <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>12点退房，这点一点都不人性，其他都还好！</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>44784.66525462963</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1159,17 +1295,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（南京龙华路地铁站店）</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+          <t>网鱼电竞酒店（广州上下九华林寺地铁站店）</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1184,17 +1324,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（深圳万象城店）</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+          <t>网鱼电竞酒店（上海虹桥国际机场店）</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1209,17 +1353,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海莘庄地铁站店）</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>5</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4.7</v>
+          <t>网鱼电竞酒店（南京龙华路地铁站店）</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1234,17 +1382,21 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（广州中山八地铁站店）</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>5</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4.7</v>
+          <t>网鱼电竞酒店（深圳万象城店）</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1259,14 +1411,18 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（广州市桥地铁站店）</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4.8</v>
+          <t>网鱼电竞酒店（上海莘庄地铁站店）</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -1284,17 +1440,21 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（苏州汽车南站店）</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3.8</v>
+          <t>网鱼电竞酒店（广州中山八地铁站店）</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1309,17 +1469,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（石岩汽车站店）</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>3.9</v>
+          <t>网鱼电竞酒店（广州市桥地铁站店）</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1334,17 +1498,21 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（杭州火车南站店）</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>5</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4.2</v>
+          <t>网鱼电竞酒店（苏州汽车南站店）</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1359,24 +1527,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（武汉杨家湾店）</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>5</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3.9</v>
+          <t>网鱼电竞酒店（石岩汽车站店）</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>😂😂😂😂😂😂😂😂😂😂😂😂</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>44784.53274305556</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1384,24 +1564,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（广州滘口地铁站店）</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>4.7</v>
+          <t>网鱼电竞酒店（石岩汽车站店）</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>😂😂😂😂😂😂😂😂😂😂😂😂</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>44784.53274305556</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1409,24 +1601,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海嘉定新天地店）</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>5</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4.3</v>
+          <t>网鱼电竞酒店（石岩汽车站店）</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>😂😂😂😂😂😂😂😂😂😂😂😂</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>44784.53274305556</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1434,14 +1638,18 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（长沙树木岭地铁站店）</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4.2</v>
+          <t>网鱼电竞酒店（杭州火车南站店）</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
       </c>
       <c r="E39" t="n">
         <v>6</v>
@@ -1459,17 +1667,21 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海虹口四川北路店）</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>5</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3.9</v>
+          <t>网鱼电竞酒店（武汉杨家湾店）</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1484,32 +1696,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海松江大学城店）</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4</v>
+          <t>网鱼电竞酒店（广州滘口地铁站店）</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>电竞酒店￼除了电脑卡，其它那都好，我退下了！</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>44781.40173611111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1517,17 +1725,21 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（杭州翠苑文一路店）</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>5</v>
-      </c>
-      <c r="D42" t="n">
-        <v>4.5</v>
+          <t>网鱼电竞酒店（上海嘉定新天地店）</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1542,17 +1754,21 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海环球港店）</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D43" t="n">
-        <v>4.3</v>
+          <t>网鱼电竞酒店（长沙树木岭地铁站店）</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1567,17 +1783,21 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（苜蓿园大街店）</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>5</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4.5</v>
+          <t>网鱼电竞酒店（上海虹口四川北路店）</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1592,24 +1812,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海普陀梅岭北路地铁站店）</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>5</v>
-      </c>
-      <c r="D45" t="n">
-        <v>4.5</v>
+          <t>网鱼电竞酒店（上海松江大学城店）</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
       </c>
       <c r="E45" t="n">
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>电竞酒店￼除了电脑卡，其它那都好，我退下了！</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>44781.40173611111</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1617,14 +1849,18 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（杭州高沙地铁站店）</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>5</v>
-      </c>
-      <c r="D46" t="n">
-        <v>4</v>
+          <t>网鱼电竞酒店（杭州翠苑文一路店）</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
       </c>
       <c r="E46" t="n">
         <v>6</v>
@@ -1642,17 +1878,21 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（上海惠南地铁站店）</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>5</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4.2</v>
+          <t>网鱼电竞酒店（上海环球港店）</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
       </c>
       <c r="E47" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1667,17 +1907,21 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>网鱼电竞酒店（广州上步地铁站店）</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>5</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4.3</v>
+          <t>网鱼电竞酒店（苜蓿园大街店）</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
       </c>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1685,6 +1929,122 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>网鱼电竞酒店（上海普陀梅岭北路地铁站店）</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>网鱼电竞酒店（杭州高沙地铁站店）</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>网鱼电竞酒店（上海惠南地铁站店）</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>网鱼电竞酒店（广州上步地铁站店）</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
